--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>810521.5430392943</v>
+        <v>808264.5211302108</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>233.395866117507</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>92.13881552133064</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>11.0042946710584</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>198.5424032384317</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>221.0706685696824</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.35742748323509</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.553842565069026</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.1407479991916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>80.12772867228148</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>327.458045350471</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>6.79138903482034</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>93.08459445674001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>84.6047835096491</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873201</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>15.07437110675852</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>6.258994819929389</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>86.6686755419537</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>218.0411011828206</v>
+        <v>222.1526784153799</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>124.9598142566932</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>128.8898135591047</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417127</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.46272569692242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095775</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>126.0955237083904</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>285.169373917119</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3238,7 +3238,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>233.7508377871191</v>
+        <v>14.20188851094932</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>134.6074183484045</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706228</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143269</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164196</v>
+        <v>87.87589738164191</v>
       </c>
       <c r="S37" t="n">
         <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
         <v>285.1555829172075</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>251.0813880354226</v>
       </c>
       <c r="W37" t="n">
         <v>285.4667430481856</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006318</v>
+        <v>137.3672954345962</v>
       </c>
       <c r="Y37" t="n">
         <v>217.5283980636894</v>
@@ -3518,10 +3518,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,22 +3661,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572838</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124554</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572815</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124571</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1409.658350833668</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="C2" t="n">
-        <v>1040.695833893257</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="D2" t="n">
-        <v>682.4301352865061</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="E2" t="n">
-        <v>296.6418826882619</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="F2" t="n">
-        <v>289.6963819390584</v>
+        <v>488.1306164733774</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>474.2072124119683</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>147.0124924479712</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1796.25819089779</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>527.5811021474123</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>527.5811021474123</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1675.109392681467</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>286.532373693199</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468206</v>
+        <v>286.532373693199</v>
       </c>
       <c r="V7" t="n">
-        <v>257.1154545468206</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>257.1154545468206</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>257.1154545468206</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1005.372199209267</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="C8" t="n">
-        <v>636.4096822688557</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="D8" t="n">
-        <v>636.4096822688557</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.972039273389</v>
+        <v>1112.426648284106</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4896,7 +4896,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.8809182883535</v>
+        <v>229.7391536723323</v>
       </c>
       <c r="C10" t="n">
-        <v>295.8809182883535</v>
+        <v>60.80297074442541</v>
       </c>
       <c r="D10" t="n">
-        <v>295.8809182883535</v>
+        <v>60.80297074442541</v>
       </c>
       <c r="E10" t="n">
-        <v>147.9678247059604</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>147.9678247059604</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>147.9678247059604</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="V10" t="n">
-        <v>295.8809182883535</v>
+        <v>229.7391536723323</v>
       </c>
       <c r="W10" t="n">
-        <v>295.8809182883535</v>
+        <v>229.7391536723323</v>
       </c>
       <c r="X10" t="n">
-        <v>295.8809182883535</v>
+        <v>229.7391536723323</v>
       </c>
       <c r="Y10" t="n">
-        <v>295.8809182883535</v>
+        <v>229.7391536723323</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,19 +5039,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>416.3606924710451</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>750.1800661608916</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.698881814246</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M11" t="n">
-        <v>2593.249184644075</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N11" t="n">
-        <v>3573.001456870722</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5066,25 +5066,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,40 +5118,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>761.202295247853</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>592.2661123199462</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>592.2661123199462</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.643339221623</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.643339221623</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y13" t="n">
-        <v>942.8507600780928</v>
+        <v>171.0738540998325</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>845.0839474760701</v>
       </c>
       <c r="L14" t="n">
-        <v>1465.885462454824</v>
+        <v>1296.118160724479</v>
       </c>
       <c r="M14" t="n">
-        <v>1999.417367126749</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5358,49 +5358,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.220281864028</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="C16" t="n">
-        <v>704.2840989361212</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D16" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5440,7 +5440,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5464,22 +5464,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1758.335364941702</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1758.335364941702</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1503.650876735815</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W16" t="n">
-        <v>1503.650876735815</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X16" t="n">
-        <v>1275.661325837798</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1054.868746694268</v>
+        <v>260.9043113423044</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2536.15366264131</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N17" t="n">
-        <v>3254.420735780954</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>411.3871648742117</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1868.799349395659</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.032733965185</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1357.929867090829</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1103.245378884942</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>813.8282088479816</v>
+        <v>709.6864413838515</v>
       </c>
       <c r="X19" t="n">
-        <v>813.8282088479816</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="Y19" t="n">
-        <v>593.0356297044515</v>
+        <v>260.904311342304</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,19 +5753,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M20" t="n">
-        <v>2368.748013620957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2915.526830679739</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3795.491481009194</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.5459590456827</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.789495593986</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>970.5459590456827</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y22" t="n">
-        <v>970.5459590456827</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>741.1020862043852</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846823</v>
+        <v>1605.62090185774</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518747</v>
+        <v>2584.171204687568</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>658.1567207524339</v>
+        <v>368.6730165490252</v>
       </c>
       <c r="C25" t="n">
-        <v>489.220537824527</v>
+        <v>368.6730165490252</v>
       </c>
       <c r="D25" t="n">
-        <v>339.1038984121913</v>
+        <v>368.6730165490252</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>368.6730165490252</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>221.7830690511149</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W25" t="n">
-        <v>1060.597764726204</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="X25" t="n">
-        <v>1060.597764726204</v>
+        <v>771.1140605227951</v>
       </c>
       <c r="Y25" t="n">
-        <v>839.8051855826736</v>
+        <v>550.3214813792649</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.715908442899</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>3163.468180669545</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>3987.344609994335</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4382.118976351513</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.6328654632896</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C28" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D28" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W28" t="n">
-        <v>908.9588510157365</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>908.9588510157365</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.9588510157365</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443163</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,10 +6540,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>410.1538185715856</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1538185715856</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>410.1538185715856</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715856</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6625,16 +6625,16 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1356.696520788203</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1102.012032582316</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>812.5948625453555</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>812.5948625453555</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y31" t="n">
-        <v>591.8022834018253</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>419.327655504578</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K32" t="n">
-        <v>753.1470291944245</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L32" t="n">
-        <v>1617.665844847779</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519704</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6862,37 +6862,37 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W34" t="n">
         <v>894.9278122480886</v>
@@ -6923,13 +6923,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6938,25 +6938,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2368.748013620957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.758180993045</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>662.2920468228211</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>494.422788428657</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>494.422788428657</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>358.4556991878445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>358.4556991878445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>191.8197870963062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>191.8197870963062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7096,10 +7096,10 @@
         <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.762235315249</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992664</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7123,22 +7123,22 @@
         <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1685.326515640714</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1397.290573300101</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1397.290573300101</v>
+        <v>922.9733187312256</v>
       </c>
       <c r="W37" t="n">
-        <v>1108.940327796883</v>
+        <v>634.6230732280079</v>
       </c>
       <c r="X37" t="n">
-        <v>882.0177014326084</v>
+        <v>495.8682293546785</v>
       </c>
       <c r="Y37" t="n">
-        <v>662.2920468228211</v>
+        <v>276.1425747448912</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,13 +7172,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>419.327655504578</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>753.1470291944245</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M38" t="n">
         <v>2151.197749519704</v>
@@ -7187,7 +7187,7 @@
         <v>3130.950021746351</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075806</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P38" t="n">
         <v>4405.689038432984</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932526</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160449</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,31 +7351,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7388,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>1999.417367126749</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7439,16 +7439,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,19 +7488,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416715</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819763</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,31 +7588,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036714</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1407.474004094474</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>1941.005908766399</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N44" t="n">
-        <v>2920.758180993045</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,40 +7725,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7798,7 +7798,7 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,28 +7825,28 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
         <v>922.7139997036716</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>226.768859619311</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>60.0189488469199</v>
       </c>
       <c r="L14" t="n">
-        <v>400.5976869789382</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>173.2204606877393</v>
+        <v>180.7381496078632</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>132.9990175570131</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>5.284192235662204</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>124.0833809162818</v>
       </c>
       <c r="L23" t="n">
-        <v>198.7154374299943</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,13 +9887,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>347.9535560878012</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>23.80814351663778</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>292.568571519122</v>
+        <v>50.84927212317575</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.2499899971294</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>5.28419223566209</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>36.48628322062268</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>136.2499899971294</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>60.66917680434256</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>400.597686978939</v>
+        <v>89.52456338961929</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>172.4995987156025</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>48.65289230147084</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>61.82917913692008</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>152.1724499918693</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>213.2899544562398</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696673</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>103.1003497894882</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>7.668554206216584</v>
+        <v>3.556976973657243</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>41.06599400233499</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>157.6331847774863</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.36925448501488</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>53.73645647354688</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.042464288493895</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>52.77216054947192</v>
+        <v>272.3211098256417</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.559217729807</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>10.77028900975932</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
         <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
         <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143267</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25363,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877638</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354226</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>87.2861046660355</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26320,16 +26320,16 @@
         <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="F2" t="n">
         <v>397081.7868869831</v>
-      </c>
-      <c r="F2" t="n">
-        <v>397081.786886983</v>
       </c>
       <c r="G2" t="n">
         <v>397081.786886983</v>
       </c>
       <c r="H2" t="n">
-        <v>397081.786886983</v>
+        <v>397081.7868869831</v>
       </c>
       <c r="I2" t="n">
         <v>397081.786886983</v>
@@ -26338,7 +26338,7 @@
         <v>397081.786886983</v>
       </c>
       <c r="K2" t="n">
-        <v>397081.7868869831</v>
+        <v>397081.786886983</v>
       </c>
       <c r="L2" t="n">
         <v>397081.786886983</v>
@@ -26347,10 +26347,10 @@
         <v>397383.9705399409</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="O2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="P2" t="n">
         <v>410520.8849321415</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414975</v>
+        <v>36735.10506414972</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
@@ -26427,37 +26427,37 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918995</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="H4" t="n">
-        <v>18148.49231918991</v>
-      </c>
       <c r="I4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="K4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811452</v>
+        <v>18496.05294811454</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.653297409</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26482,16 +26482,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445654.7592029402</v>
+        <v>-445654.7592029404</v>
       </c>
       <c r="C6" t="n">
         <v>144313.1200116041</v>
       </c>
       <c r="D6" t="n">
-        <v>144313.1200116041</v>
+        <v>144313.120011604</v>
       </c>
       <c r="E6" t="n">
-        <v>-444827.6376793272</v>
+        <v>-444894.833169553</v>
       </c>
       <c r="F6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238537</v>
       </c>
       <c r="G6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238538</v>
       </c>
       <c r="H6" t="n">
-        <v>282549.7763140795</v>
+        <v>282482.5808238537</v>
       </c>
       <c r="I6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238536</v>
       </c>
       <c r="J6" t="n">
-        <v>106126.5571214865</v>
+        <v>106059.3616312605</v>
       </c>
       <c r="K6" t="n">
-        <v>282549.7763140795</v>
+        <v>282482.5808238536</v>
       </c>
       <c r="L6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238536</v>
       </c>
       <c r="M6" t="n">
-        <v>151928.2819426026</v>
+        <v>151862.5973706417</v>
       </c>
       <c r="N6" t="n">
-        <v>239847.4555564809</v>
+        <v>239847.4555564807</v>
       </c>
       <c r="O6" t="n">
-        <v>276582.5606206306</v>
+        <v>276582.5606206305</v>
       </c>
       <c r="P6" t="n">
         <v>276582.5606206304</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018719</v>
+        <v>45.91888133018715</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>180.388303903288</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>59.79250072353061</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>275.2775795709193</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>87.98059509815928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>148.6604321087867</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.8805111728185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>247.583800758759</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.44390535290322</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>301.8026413999803</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>79.41800039124047</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>139.6425736117488</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>63.08629438505514</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405417</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-2.155393157671664e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>324.040058608738</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>734.8218605075301</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>397.2102354023204</v>
       </c>
       <c r="L14" t="n">
-        <v>856.1878013712703</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35665,10 +35665,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>725.5222961006508</v>
+        <v>733.0399850207745</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493451</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>404.0461784550341</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>461.2746674716822</v>
       </c>
       <c r="L23" t="n">
-        <v>654.3055518223265</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36607,13 +36607,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>856.0065569760203</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>274.6024483203573</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>844.8704069320335</v>
+        <v>603.1511075360872</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>327.036990965842</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37306,28 +37306,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>557.5860276485736</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>544.5392841088418</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147161</v>
+        <v>46.63467190147164</v>
       </c>
       <c r="K37" t="n">
         <v>207.103914832725</v>
@@ -37479,10 +37479,10 @@
         <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335158</v>
+        <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629904</v>
+        <v>79.45049382629908</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>327.036990965842</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>599.5902926345691</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,13 +37710,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>939.5188028091655</v>
+        <v>628.4456792198461</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,16 +37944,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>628.0897131079345</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>587.5740081316976</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
